--- a/i18n/excel_from_translation/dk.au.agro.xlsx
+++ b/i18n/excel_from_translation/dk.au.agro.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26220"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="285" documentId="11_ABD3A3D1FC456FAE8189ECC85F0EC5514FD1FDC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B56D28CA-CAC3-4265-A92D-BC2364350F0F}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="11_ABD3A3D1FC456FAE8189ECC85F0EC5514FD1FDC8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67133466-D59B-4D5F-BF48-05AE22C82795}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="116">
   <si>
     <t>KEY</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Århus universitet RustWatch</t>
+  </si>
+  <si>
+    <t>Aarhus University Observatoire des Rouilles</t>
   </si>
   <si>
     <t>dk.au.agro.1_0.models.LeafRustGeneticGroupFrequency.description</t>
@@ -139,11 +142,21 @@
     <t>„RustWatch“ yra nusistovėjusi suinteresuotųjų šalių skatinama išankstinio įspėjimo sistema, skirta pagerinti pasirengimą ir atsparumą naujai atsirandančioms rūdims kviečiuose. Rūdys  yra labai dinamiškos, todėl labai svarbu sekti agresyvumo ir plitimo struktūros pokyčius, pvz. esamą kviečių geltonųjų rūdžių populiaciją pakeitė neeuropinės kilmės invazinės rasės (2011 m.), o nuo 2016 m. Europoje kyla vis sunkesnės juodųjų rūdžių kviečiuose epidemijos. Norėdami išsamesnės informacijos apie surinktus duomenis apie rūdis, peržiūrėkite GRRC platformą. https://gis-au.maps.arcgis.com/apps/dashboards/6817a33478df49d39176863fdc67fe15. „RustWatch“ partneriai stebi rūdžių rūšių ir rasių vystymąsi, kad įvertintų galimą jų poveikį žemės ūkio augalų produktyvumui. Siekiama sukurti mokslinių tyrimų ir komunikacijos infrastruktūrą įtraukiant suinteresuotųjų šalių tinklus. Tyrimai ir fenotipų nustatymas yra būtini augalų selekcininkams, siekiantiems išvesti naujas, atsparias veisles. „RustWatch“ apjungia 12 universitetų / mokslinių tyrimų institutų, 5 žemės ūkio konsultavimo tarnybas ir 7 mažas ar vidutines įmones/ pramonės atstovus. „RustWatch“ projektui pasibaigus 2022 m., įkurtas  „RustWatch – kviečių rūdžių tinklas Europai“. Stebėjimai, apimantys visą Europą, rasių fenotipų nustatymas ir kita mokslinių tyrimų veikla bus tęsiama remiantis susijusių projektų koordinavimu, nacionalinių veiklų ir sutartų verslo modelių dėka. Visi, besidomintys išankstiniu įspėjimu ir kviečių rūdžių ligomis, kviečiami prisijungti prie šio tinklo ir dalyvauti „RustWatch“ veikloje.</t>
   </si>
   <si>
+    <t>émergentes de la rouille du blé. Les maladies de la rouille sont très dynamiques, ce qui rend très important de suivre les changements dans l'agressivité et le modèle de propagation. Par exemple, la population existante de la rouille jaune du blé a été remplacée par des races invasives d'origine non-européenne (2011) et depuis 2016 l'Europe a connu des épidémies plus sévères de rouille sur tige en blé. Si vous souhaitez des informations plus détaillées sur les données collectées sur les rouilles, visitez la plateforme du CRRG. https://gis-au.maps.arcgis.com/apps/dashboards/6817a33478df49d39176863fdc67fe15
+Les partenaires de RustWatch gardent un œil sur le développement des espèces et des races de rouille afin d'évaluer leur impact potentiel sur la productivité agricole. Ils développent des infrastructures de recherche et de communication, y compris des réseaux d’acteurs.... La recherche et le phénotypage sont essentiels pour les sélectionneurs qui recherchent de nouveaux cultivars résistants.
+RustWatch associe 12 universités/instituts de recherche, 5 services de conseil agricole et 7 PME/industries. Après la fin du projet en 2022, RustWatch est désormais un "un réseau de rouille du blé pour l'Europe". La surveillance paneuropéenne, le phénotypage des races et d'autres activités de recherche se poursuivront sur la base de la coordination des projets connexes, des activités nationales et des modèles commerciaux spécifiques.  Toute personne intéressée par l'alerte précoce pour les maladies de la rouille du blé est invitée à rejoindre ce réseau et à participer aux activités de RustWatch.</t>
+  </si>
+  <si>
     <t>RustWatch è un sistema consolidato di allerta precoce guidato dagli stakeholder per migliorare la preparazione e la resilienza alle malattie emergenti della ruggine del grano. Le malattie da ruggine sono molto dinamiche, il che rende molto importante seguire i cambiamenti nell'aggressività e nel modello di diffusione, ad esempio la popolazione esistente di ruggine gialla del grano è stata sostituita da razze invasive di origine extraeuropea (2011) e dal 2016 l'Europa ha sperimentato epidemie più gravi di ruggine dello stelo del grano. Se volete informazioni più dettagliate sui dati raccolti sulla ruggine, date un'occhiata alla piattaforma del GRRC. https://gis-au.maps.arcgis.com/apps/dashboards/6817a33478df49d39176863fdc67fe15
 I partner di RustWatch tengono d'occhio lo sviluppo delle specie e delle razze di ruggine per valutarne il potenziale impatto sulla produttività agricola e infine sviluppano infrastrutture di ricerca e comunicazione, comprese le reti di stakeholder. La ricerca e la fenotipizzazione sono essenziali per i selezionatori di nuove cultivar resistenti.
 RustWatch coinvolge 12 università/istituti di ricerca, 5 servizi di consulenza agricola e 7 PMI/industrie. Dopo la conclusione del progetto nel 2022, RustWatch è ora "RustWatch - una rete per l'Europa sulla ruggine del grano". La sorveglianza paneuropea, la fenotipizzazione delle razze e altre attività di ricerca continueranno sulla base del coordinamento dei progetti correlati, delle attività nazionali e dei modelli commerciali concordati.  Tutti coloro che sono interessati all'allerta precoce e alle malattie della ruggine del grano sono invitati a unirsi a questa rete e a partecipare alle attività di RustWatch.</t>
   </si>
   <si>
+    <t>Το RustWatch είναι ένα καθιερωμένο σύστημα έγκαιρης προειδοποίησης με γνώμονα τους ενδιαφερόμενους φορείς για τη βελτίωση της ετοιμότητας και της ανθεκτικότητας στις αναδυόμενες ασθένειες σκουριάς στο σιτάρι. Οι ασθένειες σκουριάς είναι πολύ δυναμικές, γεγονός που καθιστά πολύ σημαντική την παρακολούθηση των αλλαγών στην επιθετικότητα και το πρότυπο εξάπλωσης, π.χ. ο υφιστάμενος πληθυσμός της κίτρινης σκουριάς του σιταριού έχει αντικατασταθεί από εισβολικές φυλές μη ευρωπαϊκής προέλευσης (2011) και από το 2016 η Ευρώπη έχει βιώσει πιο σοβαρές επιδημίες της σκουριάς του στελέχους του σιταριού. Αν θέλετε πιο λεπτομερείς πληροφορίες σχετικά με τα συλλεχθέντα δεδομένα για τη σκουριά, ρίξτε μια ματιά στην πλατφόρμα GRRC. https://gis-au.maps.arcgis.com/apps/dashboards/6817a33478df49d39176863fdc67fe15
+Οι εταίροι του RustWatch παρακολουθούν την εξέλιξη των ειδών και των φυλών σκουριάς, προκειμένου να αξιολογήσουν τον πιθανό αντίκτυπό τους στη γεωργική παραγωγικότητα. και τέλος αναπτύσσουν υποδομές έρευνας και επικοινωνίας, συμπεριλαμβανομένων των δικτύων ενδιαφερομένων. Η έρευνα και ο φαινότυπος είναι απαραίτητοι για τους φυτωριούχους που ελέγχουν για νέες ανθεκτικές ποικιλίες.
+Στο RustWatch συμμετέχουν 12 πανεπιστήμια/ερευνητικά ινστιτούτα, 5 γεωργικές συμβουλευτικές υπηρεσίες και 7 ΜΜΕ/βιομηχανίες. Μετά τη λήξη του έργου το 2022, το RustWatch είναι πλέον ένα RustWatch - ένα δίκτυο σκουριάς σίτου για την Ευρώπη". Η πανευρωπαϊκή επιτήρηση, ο φαινότυπος των φυλών και άλλες ερευνητικές δραστηριότητες θα συνεχιστούν με βάση το συντονισμό των σχετικών έργων, των εθνικών δραστηριοτήτων και των συμφωνημένων επιχειρηματικών μοντέλων.  Όλοι όσοι ενδιαφέρονται για την έγκαιρη προειδοποίηση και τις ασθένειες της σκουριάς του σίτου είναι ευπρόσδεκτοι να ενταχθούν σε αυτό το δίκτυο και να συμμετάσχουν στις δραστηριότητες του RustWatch".</t>
+  </si>
+  <si>
     <t>dk.au.agro.1_0.models.LeafRustGeneticGroupFrequency.name</t>
   </si>
   <si>
@@ -174,9 +187,15 @@
     <t>Kviečių rudųjų rūdžių genetinės grupės dažnumo pasiskirstymas</t>
   </si>
   <si>
+    <t>Distribution de fréquence des groupes génétiques de la rouille des feuilles</t>
+  </si>
+  <si>
     <t>Distribuzione di frequenza dei gruppi genetici della ruggine fogliare</t>
   </si>
   <si>
+    <t>Κατανομή συχνότητας γενετικών ομάδων σκουριάς φύλλων</t>
+  </si>
+  <si>
     <t>dk.au.agro.1_0.models.LeafRustGeneticGroupFrequency.purpose</t>
   </si>
   <si>
@@ -207,7 +226,13 @@
     <t>Išankstinio perspėjimo sistema, skirta pagerinti pasirengimą ir atsparumą naujai pasireiškiančioms rūdims kviečiuose.</t>
   </si>
   <si>
+    <t>Système d'alerte précoce pour améliorer la gestion et la résilience aux maladies émergentes de la rouille du blé</t>
+  </si>
+  <si>
     <t>Sistema di allerta precoce per migliorare la preparazione e la resilienza alle malattie emergenti della ruggine del grano</t>
+  </si>
+  <si>
+    <t>Σύστημα έγκαιρης προειδοποίησης για τη βελτίωση της ετοιμότητας και της ανθεκτικότητας σε αναδυόμενες ασθένειες σκουριάς στο σιτάρι</t>
   </si>
   <si>
     <t>dk.au.agro.1_0.models.StemRustGeneticFrequency.description</t>
@@ -228,9 +253,20 @@
     <t>„RustWatch“ yra nusistovėjusi suinteresuotųjų šalių skatinama išankstinio įspėjimo sistema, skirta pagerinti pasirengimą ir atsparumą pasireiškiančioms kviečių rūdžių ligoms. Rūdžių sukeliamos ligos yra labai dinamiškos, todėl labai svarbu sekti agresyvumo ir plitimo modelio pokyčius, pvz. esamą kviečių geltonųjų rūdžių populiaciją pakeitė neeuropinės kilmės invazinės rasės (2011 m.), o nuo 2016 m. Europoje kyla vis sunkesnės juodųjų rūdžių kviečiuose epidemijos. Jei norite išsamesnės informacijos apie surinktus duomenis apie rūdis, peržiūrėkite GRRC platformą. https://gis-au.maps.arcgis.com/apps/dashboards/6817a33478df49d39176863fdc67fe15. „RustWatch“ partneriai stebi rūdžių rūšių ir rasių vystymąsi, kad įvertintų galimą jų poveikį žemės ūkio produktyvumui ir galiausiai sukurtų mokslinių tyrimų ir komunikacijos infrastruktūrą įtraukiant suinteresuotųjų šalių tinklus. Tyrimai ir fenotipų nustatymas yra būtini augalų selekcininkams, siekiantiems išvesti naujas, atsparias veisles. „RustWatch“ įtraukai 12 universitetų / mokslinių tyrimų institutų, 5 žemės ūkio konsultavimo tarnybas ir 7 mažas ar vidutines įmones/ pramones atstovus. 2022 m. projektui pasibaigus, „RustWatch“ dabar pristatomas kaip „RustWatch – kviečių rūdžių tinklas Europai“. Stebėjimai apimantys visą Europą, rasių fenotipų nustatymas ir kita mokslinių tyrimų veikla bus tęsiama remiantis susijusių projektų koordinavimu, nacionalinių veiklų ir sutartų verslo modelių dėka. Visi, besidomintys išankstiniu įspėjimu ir kviečių rūdžių ligomis, kviečiami prisijungti prie šio tinklo ir dalyvauti „RustWatch“ veikloje.</t>
   </si>
   <si>
+    <t xml:space="preserve">RustWatch est un système d'alerte précoce pour améliorer la gestion et la résilience aux maladies émergentes de la rouille du blé. Les maladies de la rouille sont très dynamiques, ce qui rend très important de suivre les changements dans l'agressivité et le modèle de propagation. Par exemple, la population existante de la rouille jaune du blé a été remplacée par des races invasives d'origine non-européenne (2011) et depuis 2016 l'Europe a connu des épidémies plus sévères de rouille sur tige en blé. Si vous souhaitez des informations plus détaillées sur les données collectées sur les rouilles, visitez la plateforme du CRRG. https://gis-au.maps.arcgis.com/apps/dashboards/6817a33478df49d39176863fdc67fe15 
+Les partenaires de RustWatch gardent un œil sur le développement des espèces et des races de rouille afin d'évaluer leur impact potentiel sur la productivité agricole. Ils développent des infrastructures de recherche et de communication, y compris des réseaux d’acteurs concernés.... La recherche et le phénotypage sont essentiels pour les sélectionneurs qui recherchent de nouveaux cultivars résistants.
+ RustWatch associe 12 universités/instituts de recherche, 5 services de conseil agricole et 7 PME/industries. Après la fin du projet en 2022, RustWatch est désormais un "réseau de rouille du blé pour l'Europe". La surveillance paneuropéenne, le phénotypage des races et d'autres activités de recherche se poursuivront sur la base de la coordination des projets connexes, des activités nationales et des modèles commerciaux spécifiques.  Toute personne intéressée par l'alerte précoce pour les maladies de la rouille du blé est invitée à rejoindre ce réseau et à participer aux activités de RustWatch.
+</t>
+  </si>
+  <si>
     <t>RustWatch è un sistema consolidato di allerta precoce guidato dagli stakeholder per migliorare la preparazione e la resilienza alle malattie emergenti della ruggine del grano. Le malattie da ruggine sono molto dinamiche, il che rende molto importante seguire i cambiamenti nell'aggressività e nel modello di diffusione, ad esempio la popolazione esistente di ruggine gialla del grano è stata sostituita da razze invasive di origine extraeuropea (2011) e dal 2016 l'Europa ha sperimentato epidemie più gravi di ruggine dello stelo del grano. Se volete informazioni più dettagliate sui dati raccolti sulla ruggine, consultate la piattaforma del GRRC. https://gis-au.maps.arcgis.com/apps/dashboards/6817a33478df49d39176863fdc67fe15</t>
   </si>
   <si>
+    <t>Το RustWatch είναι ένα καθιερωμένο σύστημα έγκαιρης προειδοποίησης με γνώμονα τους ενδιαφερόμενους φορείς για τη βελτίωση της ετοιμότητας και της ανθεκτικότητας στις αναδυόμενες ασθένειες σκουριάς στο σιτάρι. Οι ασθένειες σκουριάς είναι πολύ δυναμικές, γεγονός που καθιστά πολύ σημαντική την παρακολούθηση των αλλαγών στην επιθετικότητα και το πρότυπο εξάπλωσης, π.χ. ο υφιστάμενος πληθυσμός της κίτρινης σκουριάς του σιταριού έχει αντικατασταθεί από εισβολικές φυλές μη ευρωπαϊκής προέλευσης (2011) και από το 2016 η Ευρώπη έχει βιώσει πιο σοβαρές επιδημίες της σκουριάς του στελέχους του σιταριού. Αν θέλετε πιο λεπτομερείς πληροφορίες σχετικά με τα συλλεχθέντα δεδομένα για τη σκουριά, ρίξτε μια ματιά στην πλατφόρμα GRRC. https://gis-au.maps.arcgis.com/apps/dashboards/6817a33478df49d39176863fdc67fe15
+Οι εταίροι του RustWatch παρακολουθούν την εξέλιξη των ειδών και των φυλών σκουριάς, προκειμένου να αξιολογήσουν τον πιθανό αντίκτυπό τους στη γεωργική παραγωγικότητα. και τέλος αναπτύσσουν υποδομές έρευνας και επικοινωνίας, συμπεριλαμβανομένων των δικτύων ενδιαφερομένων. Η έρευνα και ο φαινότυπος είναι απαραίτητοι για τους φυτωριούχους που ελέγχουν για νέες ανθεκτικές ποικιλίες.
+Στο RustWatch συμμετέχουν 12 πανεπιστήμια/ερευνητικά ινστιτούτα, 5 γεωργικές συμβουλευτικές υπηρεσίες και 7 ΜΜΕ/βιομηχανίες. Μετά τη λήξη του έργου το 2022, το RustWatch είναι πλέον ένα RustWatch - ένα δίκτυο σκουριάς σίτου για την Ευρώπη". Η πανευρωπαϊκή επιτήρηση, ο φαινότυπος των φυλών και άλλες ερευνητικές δραστηριότητες θα συνεχιστούν με βάση το συντονισμό των σχετικών έργων, των εθνικών δραστηριοτήτων και των συμφωνημένων επιχειρηματικών μοντέλων.  Όλοι όσοι ενδιαφέρονται για την έγκαιρη προειδοποίηση και τις ασθένειες της σκουριάς του σίτου είναι ευπρόσδεκτοι να ενταχθούν σε αυτό το δίκτυο και να συμμετάσχουν στις δραστηριότητες του RustWatch.</t>
+  </si>
+  <si>
     <t>dk.au.agro.1_0.models.StemRustGeneticFrequency.name</t>
   </si>
   <si>
@@ -258,7 +294,13 @@
     <t>Kviečių juodųjų rūdžių genetinio dažnumo pasiskirstymas</t>
   </si>
   <si>
+    <t>Distribution de la fréquence génétique de la rouille des tiges</t>
+  </si>
+  <si>
     <t>Distribuzione della frequenza genetica della ruggine del fusto</t>
+  </si>
+  <si>
+    <t>Κατανομή της γενετικής συχνότητας της σκωρίασης του βλαστού</t>
   </si>
   <si>
     <t>dk.au.agro.1_0.models.StemRustGeneticFrequency.purpose</t>
@@ -276,6 +318,11 @@
 </t>
   </si>
   <si>
+    <t>RustWatch est un système d'alerte précoce pour améliorer la gestion et la résilience face aux maladies émergentes de la rouille du blé. Les maladies de la rouille sont très dynamiques, ce qui rend très important de suivre les changements dans l'agressivité et le modèle de propagation. Par exemple, la population existante de la rouille jaune du blé a été remplacée par des races invasives d'origine non-européenne (2011) et depuis 2016 l'Europe a connu des épidémies plus sévères de rouille sur tige en blé. Si vous souhaitez des informations plus détaillées sur les données collectées sur les rouilles, visitez la plateforme du CRRG. https://gis-au.maps.arcgis.com/apps/dashboards/6817a33478df49d39176863fdc67fe15 
+Les partenaires de RustWatch gardent un œil sur le développement des espèces et des races de rouille afin d'évaluer leur impact potentiel sur la productivité agricole. Ils développent des infrastructures de recherche et de communication, y compris des réseaux d’acteurs concernés.... La recherche et le phénotypage sont essentiels pour les sélectionneurs qui recherchent de nouveaux cultivars résistants.
+RustWatch associe 12 universités/instituts de recherche, 5 services de conseil agricole et 7 PME/industries. Après la fin du projet en 2022, RustWatch est désormais un "réseau de rouille du blé pour l'Europe". La surveillance paneuropéenne, le phénotypage des races et d'autres activités de recherche se poursuivront sur la base de la coordination des projets connexes, des activités nationales et des modèles commerciaux spécifiques. Toute personne intéressée par l'alerte précoce pour les maladies de la rouille du blé est invitée à rejoindre ce réseau et à participer aux activités de RustWatch.</t>
+  </si>
+  <si>
     <t>dk.au.agro.1_0.models.YellowRustEarlyWarning.name</t>
   </si>
   <si>
@@ -306,9 +353,15 @@
     <t xml:space="preserve">Išankstinis perspėjimas dėl geltonųjų rūdžių </t>
   </si>
   <si>
+    <t>Alerte précoce à la rouille jaune</t>
+  </si>
+  <si>
     <t>Allarme precoce per la ruggine gialla</t>
   </si>
   <si>
+    <t>Έγκαιρη προειδοποίηση κίτρινης σκωρίωσης</t>
+  </si>
+  <si>
     <t>dk.au.agro.1_0.models.YellowRustEarlyWarning.purpose</t>
   </si>
   <si>
@@ -321,6 +374,12 @@
     <t>dk.au.agro.1_0.models.YellowRustGeneticGroupFrequency.description</t>
   </si>
   <si>
+    <t xml:space="preserve">RustWatch est un système d'alerte précoce pour améliorer la gestion et la résilience face aux maladies émergentes de la rouille du blé. Les maladies de la rouille sont très dynamiques, ce qui rend très important de suivre les changements dans l'agressivité et le modèle de propagation. Par exemple, la population existante de la rouille jaune du blé a été remplacée par des races invasives d'origine non-européenne (2011) et depuis 2016 l'Europe a connu des épidémies plus sévères de rouille sur tige en blé. Si vous souhaitez des informations plus détaillées sur les données collectées sur les rouilles, visitez la plateforme du CRRG. https://gis-au.maps.arcgis.com/apps/dashboards/6817a33478df49d39176863fdc67fe15 
+Les partenaires de RustWatch gardent un œil sur le développement des espèces et des races de rouille afin d'évaluer leur impact potentiel sur la productivité agricole. Ils développent des infrastructures de recherche et de communication, y compris des réseaux d’acteurs concernés.... La recherche et le phénotypage sont essentiels pour les sélectionneurs qui recherchent de nouveaux cultivars résistants.
+RustWatch associe 12 universités/instituts de recherche, 5 services de conseil agricole et 7 PME/industries. Après la fin du projet en 2022, RustWatch est désormais un "réseau de rouille du blé pour l'Europe". La surveillance paneuropéenne, le phénotypage des races et d'autres activités de recherche se poursuivront sur la base de la coordination des projets connexes, des activités nationales et des modèles commerciaux spécifiques. Toute personne intéressée par l'alerte précoce pour les maladies de la rouille du blé est invitée à rejoindre ce réseau et à participer aux activités de RustWatch.
+</t>
+  </si>
+  <si>
     <t>dk.au.agro.1_0.models.YellowRustGeneticGroupFrequency.name</t>
   </si>
   <si>
@@ -345,7 +404,13 @@
     <t>Geltonųjų rūdžių genetinių grupių dažnumo pasiskirstymas</t>
   </si>
   <si>
+    <t>Distribution de fréquence des groupes génétiques de la rouille jaune</t>
+  </si>
+  <si>
     <t>Distribuzione di frequenza dei gruppi genetici della ruggine gialla</t>
+  </si>
+  <si>
+    <t>Κατανομή συχνότητας γενετικών ομάδων κίτρινης σκουριάς</t>
   </si>
   <si>
     <t>dk.au.agro.1_0.models.YellowRustGeneticGroupFrequency.purpose</t>
@@ -355,7 +420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +455,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -457,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -497,6 +569,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -916,7 +1001,13 @@
       <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="K2" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="L2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -929,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -943,6 +1034,7 @@
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="36.7109375" style="5" customWidth="1"/>
     <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -976,7 +1068,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -997,107 +1089,125 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="76.5">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="121.5">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1109,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1119,6 +1229,8 @@
     <col min="4" max="4" width="9.140625" style="5"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="11" max="11" width="70" style="19" customWidth="1"/>
+    <col min="13" max="13" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1152,7 +1264,7 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1173,107 +1285,125 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>68</v>
+        <v>77</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1285,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1294,6 +1424,7 @@
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="5" width="9.140625" style="5"/>
     <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="11" max="11" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1348,105 +1479,123 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="331.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1459,16 +1608,19 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
     <col min="3" max="3" width="22" style="5" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="5"/>
     <col min="8" max="8" width="9.140625" style="5"/>
     <col min="10" max="10" width="28.5703125" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" customWidth="1"/>
+    <col min="13" max="13" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1523,106 +1675,124 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="409.6">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>59</v>
+        <v>67</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="18.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>97</v>
+        <v>113</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1630,15 +1800,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE6F8D6BD046F944849C04732F5FA09C" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="985394bff33c465c59c1b6ffc7f2b18c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="f0f33890-2782-435d-9951-89eaf76ec08c" xmlns:ns3="49b2234f-12e0-4bdf-b627-3d078507bec9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6e7ee76b1c64bbcff38e34ea77f7800" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1898,6 +2059,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1912,11 +2082,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73725FF-054E-44EB-8B7A-E30D58A5D38C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E89E2F1-20F3-47B5-8444-9C02015851FF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E89E2F1-20F3-47B5-8444-9C02015851FF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F73725FF-054E-44EB-8B7A-E30D58A5D38C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
